--- a/Mavenika/src/test/resources/Data/Mavenika.xlsx
+++ b/Mavenika/src/test/resources/Data/Mavenika.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J.SANDEEP\eclipse-workspace\ExperienceFramework\Mavenika\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J.SANDEEP\git\repository\Mavenika\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE167A0-FE9C-4636-A8BA-EDCF064435D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08627D7-4C33-4BC0-A90E-792DB04530A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2028" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="588" yWindow="1128" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
     <sheet name="Potentials" sheetId="3" r:id="rId3"/>
+    <sheet name="Campaigns" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>salutation</t>
   </si>
@@ -108,19 +109,49 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>sudheer</t>
+  </si>
+  <si>
+    <t>04/04/2022</t>
+  </si>
+  <si>
+    <t>05/03/2022</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,10 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084F63E5-49CB-4990-9513-FCB51D0A6EE0}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -609,4 +641,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0625AF04-05A6-4618-A999-274F604C9ABA}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>